--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:02:07+00:00</t>
+    <t>2021-12-10T20:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:11:58+00:00</t>
+    <t>2021-12-10T22:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:42:34+00:00</t>
+    <t>2021-12-15T00:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T00:34:29+00:00</t>
+    <t>2021-12-21T21:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T21:05:49+00:00</t>
+    <t>2022-01-10T18:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T18:47:14+00:00</t>
+    <t>2022-01-10T20:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T20:19:56+00:00</t>
+    <t>2022-01-10T22:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T22:39:32+00:00</t>
+    <t>2022-01-10T23:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
+++ b/refs/heads/ddcc-tr/CodeSystem-DDCC-QR-Category-Usage-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T23:17:23+00:00</t>
+    <t>2022-01-14T00:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
